--- a/REPORT-PAYMENT.xlsx
+++ b/REPORT-PAYMENT.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>REPORT PAYMENT</t>
+    <t>REPORT PAYMENT - PERIODE2020-11-11 TO 2020-11-18</t>
   </si>
   <si>
     <t>NO</t>
